--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_GDP.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_GDP.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +418,7 @@
         <v>39583</v>
       </c>
       <c r="B4">
-        <v>0.2999999999999829</v>
+        <v>-0.3499999999999943</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>39675</v>
       </c>
       <c r="B5">
-        <v>0.3500000000000085</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>39767</v>
       </c>
       <c r="B6">
-        <v>0.4000000000000057</v>
+        <v>-0.8999999999999915</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>39859</v>
       </c>
       <c r="B7">
-        <v>0.3250000000000028</v>
+        <v>-0.6500000000000057</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>39948</v>
       </c>
       <c r="B8">
-        <v>0.2999999999999829</v>
+        <v>-0.7000000000000171</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +458,7 @@
         <v>40040</v>
       </c>
       <c r="B9">
-        <v>0.2750000000000057</v>
+        <v>0.2000000000000028</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +466,7 @@
         <v>40132</v>
       </c>
       <c r="B10">
-        <v>0.25</v>
+        <v>0.4999999999999858</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -474,7 +474,7 @@
         <v>40224</v>
       </c>
       <c r="B11">
-        <v>-0.3000000000000114</v>
+        <v>0.4200000000000017</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -482,7 +482,7 @@
         <v>40313</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.099999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -490,7 +490,7 @@
         <v>40405</v>
       </c>
       <c r="B13">
-        <v>0.25</v>
+        <v>0.4999999999999858</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -498,7 +498,7 @@
         <v>40497</v>
       </c>
       <c r="B14">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -506,7 +506,7 @@
         <v>40589</v>
       </c>
       <c r="B15">
-        <v>0.2999999999999829</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -514,7 +514,7 @@
         <v>40678</v>
       </c>
       <c r="B16">
-        <v>0.3250000000000028</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -522,7 +522,7 @@
         <v>40770</v>
       </c>
       <c r="B17">
-        <v>0.3500000000000085</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -530,7 +530,7 @@
         <v>40862</v>
       </c>
       <c r="B18">
-        <v>0.4000000000000057</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -538,7 +538,7 @@
         <v>40954</v>
       </c>
       <c r="B19">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -546,7 +546,7 @@
         <v>41044</v>
       </c>
       <c r="B20">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>41136</v>
       </c>
       <c r="B21">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>41228</v>
       </c>
       <c r="B22">
-        <v>0.6</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -570,7 +570,7 @@
         <v>41320</v>
       </c>
       <c r="B23">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -578,7 +578,7 @@
         <v>41409</v>
       </c>
       <c r="B24">
-        <v>0.4</v>
+        <v>0.8999999999999915</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -586,7 +586,7 @@
         <v>41501</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>0.4200000000000017</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -594,7 +594,7 @@
         <v>41593</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -602,7 +602,7 @@
         <v>41685</v>
       </c>
       <c r="B27">
-        <v>0.4000000000000057</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -610,7 +610,7 @@
         <v>41774</v>
       </c>
       <c r="B28">
-        <v>0.4499999999999886</v>
+        <v>0.2999999999999829</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -618,7 +618,7 @@
         <v>41866</v>
       </c>
       <c r="B29">
-        <v>0.4999999999999858</v>
+        <v>0.4000000000000057</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -626,7 +626,7 @@
         <v>41958</v>
       </c>
       <c r="B30">
-        <v>0.4999999999999858</v>
+        <v>0.2000000000000028</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -634,7 +634,7 @@
         <v>42050</v>
       </c>
       <c r="B31">
-        <v>0.5200000000000102</v>
+        <v>0.4200000000000017</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -642,7 +642,7 @@
         <v>42139</v>
       </c>
       <c r="B32">
-        <v>0.5200000000000102</v>
+        <v>0.6200000000000045</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -650,7 +650,7 @@
         <v>42231</v>
       </c>
       <c r="B33">
-        <v>0.5200000000000102</v>
+        <v>0.4200000000000017</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -658,7 +658,7 @@
         <v>42323</v>
       </c>
       <c r="B34">
-        <v>0.5200000000000102</v>
+        <v>0.3000000000000114</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -666,7 +666,7 @@
         <v>42415</v>
       </c>
       <c r="B35">
-        <v>0.4000000000000057</v>
+        <v>0.5400000000000063</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -674,7 +674,7 @@
         <v>42505</v>
       </c>
       <c r="B36">
-        <v>0.4000000000000057</v>
+        <v>0.3400000000000034</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -682,7 +682,7 @@
         <v>42597</v>
       </c>
       <c r="B37">
-        <v>0.4000000000000057</v>
+        <v>0.4399999999999977</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>42689</v>
       </c>
       <c r="B38">
-        <v>0.4000000000000057</v>
+        <v>0.4999999999999858</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>42781</v>
       </c>
       <c r="B39">
-        <v>0.4490000000000123</v>
+        <v>0.4999999999999858</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -706,7 +706,7 @@
         <v>42870</v>
       </c>
       <c r="B40">
-        <v>0.4490000000000123</v>
+        <v>0.6999999999999886</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -714,7 +714,7 @@
         <v>42962</v>
       </c>
       <c r="B41">
-        <v>0.4490000000000123</v>
+        <v>0.5999999999999943</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -722,7 +722,7 @@
         <v>43054</v>
       </c>
       <c r="B42">
-        <v>0.4490000000000123</v>
+        <v>0.5999999999999943</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -730,7 +730,7 @@
         <v>43146</v>
       </c>
       <c r="B43">
-        <v>0.4000000000000057</v>
+        <v>0.6999999999999886</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -738,7 +738,7 @@
         <v>43235</v>
       </c>
       <c r="B44">
-        <v>0.4000000000000057</v>
+        <v>0.2999999999999829</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -746,7 +746,7 @@
         <v>43327</v>
       </c>
       <c r="B45">
-        <v>0.4000000000000057</v>
+        <v>0.4999999999999716</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -754,7 +754,7 @@
         <v>43419</v>
       </c>
       <c r="B46">
-        <v>0.4000000000000057</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -762,7 +762,7 @@
         <v>43511</v>
       </c>
       <c r="B47">
-        <v>0.4999999999999858</v>
+        <v>0.09999999999999432</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -770,7 +770,7 @@
         <v>43600</v>
       </c>
       <c r="B48">
-        <v>0.4999999999999858</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -778,7 +778,7 @@
         <v>43692</v>
       </c>
       <c r="B49">
-        <v>0.4999999999999858</v>
+        <v>-0.09999999999999432</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -786,7 +786,7 @@
         <v>43784</v>
       </c>
       <c r="B50">
-        <v>0.4999999999999858</v>
+        <v>0.08000000000004093</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -794,7 +794,7 @@
         <v>43876</v>
       </c>
       <c r="B51">
-        <v>0.2999999999999829</v>
+        <v>0.09999999999999432</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -802,7 +802,7 @@
         <v>43966</v>
       </c>
       <c r="B52">
-        <v>0.2999999999999829</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -810,7 +810,7 @@
         <v>44058</v>
       </c>
       <c r="B53">
-        <v>0.2999999999999829</v>
+        <v>6.640000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -818,7 +818,7 @@
         <v>44150</v>
       </c>
       <c r="B54">
-        <v>0.2999999999999829</v>
+        <v>-0.4000000000000057</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -826,7 +826,7 @@
         <v>44242</v>
       </c>
       <c r="B55">
-        <v>0.3490000000000038</v>
+        <v>-0.7094799999999992</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -834,7 +834,7 @@
         <v>44331</v>
       </c>
       <c r="B56">
-        <v>0.3490000000000038</v>
+        <v>1.310000000000016</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -842,7 +842,7 @@
         <v>44423</v>
       </c>
       <c r="B57">
-        <v>0.3490000000000038</v>
+        <v>1.52000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -850,7 +850,7 @@
         <v>44515</v>
       </c>
       <c r="B58">
-        <v>0.3490000000000038</v>
+        <v>-0.539999999999992</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -858,7 +858,7 @@
         <v>44607</v>
       </c>
       <c r="B59">
-        <v>0.3892477923702176</v>
+        <v>0.4652855479103435</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -866,7 +866,7 @@
         <v>44696</v>
       </c>
       <c r="B60">
-        <v>0.389918942900791</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -874,7 +874,7 @@
         <v>44788</v>
       </c>
       <c r="B61">
-        <v>0.3905935028011953</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -882,7 +882,7 @@
         <v>44880</v>
       </c>
       <c r="B62">
-        <v>0.3912714966652686</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -890,7 +890,7 @@
         <v>44972</v>
       </c>
       <c r="B63">
-        <v>0.26</v>
+        <v>-0.2078779574152918</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>45061</v>
       </c>
       <c r="B64">
-        <v>0.25</v>
+        <v>0.1206478331785803</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>45153</v>
       </c>
       <c r="B65">
-        <v>0.21</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>45245</v>
       </c>
       <c r="B66">
-        <v>0.21</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>45337</v>
       </c>
       <c r="B67">
-        <v>0.51</v>
+        <v>-0.08251004046350374</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>45427</v>
       </c>
       <c r="B68">
-        <v>0.48</v>
+        <v>0.2582525219575302</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>45519</v>
       </c>
       <c r="B69">
-        <v>0.44</v>
+        <v>-0.04717552522494373</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>45611</v>
       </c>
       <c r="B70">
-        <v>0.42</v>
+        <v>0.2142297805489477</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>45703</v>
       </c>
       <c r="B71">
-        <v>0.3317631665228618</v>
+        <v>0.2394371574146135</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>45792</v>
       </c>
       <c r="B72">
-        <v>0.2588354823876813</v>
+        <v>0.04717883418304325</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,79 +970,7 @@
         <v>45884</v>
       </c>
       <c r="B73">
-        <v>0.2150495036779461</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2">
-        <v>45976</v>
-      </c>
-      <c r="B74">
-        <v>0.1955592423774846</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2">
-        <v>46068</v>
-      </c>
-      <c r="B75">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2">
-        <v>46157</v>
-      </c>
-      <c r="B76">
-        <v>0.232</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2">
-        <v>46249</v>
-      </c>
-      <c r="B77">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2">
-        <v>46341</v>
-      </c>
-      <c r="B78">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2">
-        <v>46433</v>
-      </c>
-      <c r="B79">
-        <v>0.3557500822747528</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2">
-        <v>46522</v>
-      </c>
-      <c r="B80">
-        <v>0.353772834911311</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2">
-        <v>46614</v>
-      </c>
-      <c r="B81">
-        <v>0.3196762671417588</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2">
-        <v>46706</v>
-      </c>
-      <c r="B82">
-        <v>0.2871413350329135</v>
+        <v>0.0959495356205764</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_GDP.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_GDP.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,578 +399,418 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>39401</v>
+        <v>39400</v>
       </c>
       <c r="B2">
-        <v>0.4499999999999886</v>
+        <v>0.2592894031801904</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>39493</v>
+        <v>39583</v>
       </c>
       <c r="B3">
-        <v>0.2250000000000085</v>
+        <v>1.528044834838681</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B4">
-        <v>-0.3499999999999943</v>
+        <v>-0.4231639722327287</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>39675</v>
+        <v>39948</v>
       </c>
       <c r="B5">
-        <v>0.25</v>
+        <v>-3.800765243909694</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>39767</v>
+        <v>40130</v>
       </c>
       <c r="B6">
-        <v>-0.8999999999999915</v>
+        <v>0.4426058137615883</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>39859</v>
+        <v>40310</v>
       </c>
       <c r="B7">
-        <v>-0.6500000000000057</v>
+        <v>0.1806671024190649</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>39948</v>
+        <v>40494</v>
       </c>
       <c r="B8">
-        <v>-0.7000000000000171</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>40040</v>
+        <v>40676</v>
       </c>
       <c r="B9">
-        <v>0.2000000000000028</v>
+        <v>0.3647642815062397</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>40132</v>
+        <v>40862</v>
       </c>
       <c r="B10">
-        <v>0.4999999999999858</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>40224</v>
+        <v>41044</v>
       </c>
       <c r="B11">
-        <v>0.4200000000000017</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>40313</v>
+        <v>41228</v>
       </c>
       <c r="B12">
-        <v>1.099999999999994</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>40405</v>
+        <v>41409</v>
       </c>
       <c r="B13">
-        <v>0.4999999999999858</v>
+        <v>0.06328053690715763</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>40497</v>
+        <v>41592</v>
       </c>
       <c r="B14">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>40589</v>
+        <v>41774</v>
       </c>
       <c r="B15">
-        <v>0.3</v>
+        <v>0.8179240379891439</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>40678</v>
+        <v>41957</v>
       </c>
       <c r="B16">
-        <v>0.4</v>
+        <v>-0.08509419607057112</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>40770</v>
+        <v>42137</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.699690853462215</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>40862</v>
+        <v>42321</v>
       </c>
       <c r="B18">
-        <v>-0.2</v>
+        <v>0.4386429368392442</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>40954</v>
+        <v>42503</v>
       </c>
       <c r="B19">
-        <v>0.1</v>
+        <v>0.268690731786478</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>41044</v>
+        <v>42689</v>
       </c>
       <c r="B20">
-        <v>0.1</v>
+        <v>0.1911347634769811</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>41136</v>
+        <v>42867</v>
       </c>
       <c r="B21">
-        <v>0.1</v>
+        <v>0.4177287092911968</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>41228</v>
+        <v>43053</v>
       </c>
       <c r="B22">
-        <v>-0.3</v>
+        <v>0.633202420130246</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>41320</v>
+        <v>43145</v>
       </c>
       <c r="B23">
-        <v>0.2</v>
+        <v>0.735487593389081</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>41409</v>
+        <v>43235</v>
       </c>
       <c r="B24">
-        <v>0.8999999999999915</v>
+        <v>0.2972792544561997</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>41501</v>
+        <v>43326</v>
       </c>
       <c r="B25">
-        <v>0.4200000000000017</v>
+        <v>0.366083231974244</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>41593</v>
+        <v>43418</v>
       </c>
       <c r="B26">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>41685</v>
+        <v>43510</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>-0.1988240152552123</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>41774</v>
+        <v>43600</v>
       </c>
       <c r="B28">
-        <v>0.2999999999999829</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>41866</v>
+        <v>43691</v>
       </c>
       <c r="B29">
-        <v>0.4000000000000057</v>
+        <v>0.3842522401052975</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>41958</v>
+        <v>43783</v>
       </c>
       <c r="B30">
-        <v>0.2000000000000028</v>
+        <v>-0.2425341822259668</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>42050</v>
+        <v>43875</v>
       </c>
       <c r="B31">
-        <v>0.4200000000000017</v>
+        <v>0.1963547214277668</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>42139</v>
+        <v>43966</v>
       </c>
       <c r="B32">
-        <v>0.6200000000000045</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>42231</v>
+        <v>44068</v>
       </c>
       <c r="B33">
-        <v>0.4200000000000017</v>
+        <v>-9.690955511628317</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>42323</v>
+        <v>44159</v>
       </c>
       <c r="B34">
-        <v>0.3000000000000114</v>
+        <v>8.480305474188015</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>42415</v>
+        <v>44251</v>
       </c>
       <c r="B35">
-        <v>0.5400000000000063</v>
+        <v>0.34062844669036</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>42505</v>
+        <v>44341</v>
       </c>
       <c r="B36">
-        <v>0.3400000000000034</v>
+        <v>-1.80694255667963</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>42597</v>
+        <v>44432</v>
       </c>
       <c r="B37">
-        <v>0.4399999999999977</v>
+        <v>1.633091849519602</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>42689</v>
+        <v>44525</v>
       </c>
       <c r="B38">
-        <v>0.4999999999999858</v>
+        <v>1.694275412034003</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>42781</v>
+        <v>44617</v>
       </c>
       <c r="B39">
-        <v>0.4999999999999858</v>
+        <v>-0.3471888372093019</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>42870</v>
+        <v>44706</v>
       </c>
       <c r="B40">
-        <v>0.6999999999999886</v>
+        <v>0.2354020960014367</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>42962</v>
+        <v>44798</v>
       </c>
       <c r="B41">
-        <v>0.5999999999999943</v>
+        <v>0.1397248471449046</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>43054</v>
+        <v>44890</v>
       </c>
       <c r="B42">
-        <v>0.5999999999999943</v>
+        <v>0.4001468552058896</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>43146</v>
+        <v>44981</v>
       </c>
       <c r="B43">
-        <v>0.6999999999999886</v>
+        <v>-0.4353111306276531</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>43235</v>
+        <v>45071</v>
       </c>
       <c r="B44">
-        <v>0.2999999999999829</v>
+        <v>-0.3352883615304449</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>43327</v>
+        <v>45163</v>
       </c>
       <c r="B45">
-        <v>0.4999999999999716</v>
+        <v>0.01856969850348378</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>43419</v>
+        <v>45254</v>
       </c>
       <c r="B46">
-        <v>0.2</v>
+        <v>-0.1296233709318813</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>43511</v>
+        <v>45345</v>
       </c>
       <c r="B47">
-        <v>0.09999999999999432</v>
+        <v>-0.2870570324401456</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>43600</v>
+        <v>45436</v>
       </c>
       <c r="B48">
-        <v>-0.1</v>
+        <v>0.2135990538361767</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>43692</v>
+        <v>45534</v>
       </c>
       <c r="B49">
-        <v>-0.09999999999999432</v>
+        <v>-0.06675723343442996</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>43784</v>
+        <v>45618</v>
       </c>
       <c r="B50">
-        <v>0.08000000000004093</v>
+        <v>0.1052088781249552</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>43876</v>
+        <v>45713</v>
       </c>
       <c r="B51">
-        <v>0.09999999999999432</v>
+        <v>-0.2005382402049349</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>43966</v>
+        <v>45800</v>
       </c>
       <c r="B52">
-        <v>-11.9</v>
+        <v>0.4116519254275204</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>44058</v>
+        <v>45891</v>
       </c>
       <c r="B53">
-        <v>6.640000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2">
-        <v>44150</v>
-      </c>
-      <c r="B54">
-        <v>-0.4000000000000057</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2">
-        <v>44242</v>
-      </c>
-      <c r="B55">
-        <v>-0.7094799999999992</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2">
-        <v>44331</v>
-      </c>
-      <c r="B56">
-        <v>1.310000000000016</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B57">
-        <v>1.52000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2">
-        <v>44515</v>
-      </c>
-      <c r="B58">
-        <v>-0.539999999999992</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2">
-        <v>44607</v>
-      </c>
-      <c r="B59">
-        <v>0.4652855479103435</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2">
-        <v>44696</v>
-      </c>
-      <c r="B60">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2">
-        <v>44788</v>
-      </c>
-      <c r="B61">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2">
-        <v>44880</v>
-      </c>
-      <c r="B62">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2">
-        <v>44972</v>
-      </c>
-      <c r="B63">
-        <v>-0.2078779574152918</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2">
-        <v>45061</v>
-      </c>
-      <c r="B64">
-        <v>0.1206478331785803</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2">
-        <v>45153</v>
-      </c>
-      <c r="B65">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2">
-        <v>45245</v>
-      </c>
-      <c r="B66">
-        <v>0.044</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2">
-        <v>45337</v>
-      </c>
-      <c r="B67">
-        <v>-0.08251004046350374</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2">
-        <v>45427</v>
-      </c>
-      <c r="B68">
-        <v>0.2582525219575302</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2">
-        <v>45519</v>
-      </c>
-      <c r="B69">
-        <v>-0.04717552522494373</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2">
-        <v>45611</v>
-      </c>
-      <c r="B70">
-        <v>0.2142297805489477</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2">
-        <v>45703</v>
-      </c>
-      <c r="B71">
-        <v>0.2394371574146135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2">
-        <v>45792</v>
-      </c>
-      <c r="B72">
-        <v>0.04717883418304325</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
-        <v>45884</v>
-      </c>
-      <c r="B73">
-        <v>0.0959495356205764</v>
+        <v>-0.2766843069119602</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_GDP.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_GDP.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/0_0_Data/2_Processed_Data/2_component_Evaluation_series/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_701D841B104852295EFF31D2F87AE380C805B381" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A623498E-3CBA-4A81-B261-5CCC4E01AAE9}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -31,11 +25,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,25 +91,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -153,7 +139,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -187,7 +173,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,10 +207,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -398,19 +382,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.90625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -418,55 +397,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>38398</v>
       </c>
       <c r="B2">
-        <v>0.35402665508127029</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.3540266550812703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>38487</v>
       </c>
       <c r="B3">
-        <v>0.40176523794823987</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.4017652379482399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>38579</v>
       </c>
       <c r="B4">
-        <v>0.56606789256190382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.5660678925619038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>38671</v>
       </c>
       <c r="B5">
-        <v>0.28144362353765467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.2814436235376547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>38763</v>
       </c>
       <c r="B6">
-        <v>0.85008817269643089</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.8500881726964309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38852</v>
       </c>
       <c r="B7">
-        <v>1.3138204833559119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1.313820483355912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38944</v>
       </c>
@@ -474,7 +453,7 @@
         <v>0.7387725903715392</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>39036</v>
       </c>
@@ -482,39 +461,39 @@
         <v>0.9872160540099344</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>39128</v>
       </c>
       <c r="B10">
-        <v>0.53998075258205347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.5399807525820535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>39217</v>
       </c>
       <c r="B11">
-        <v>0.25928940318019039</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.2592894031801904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>39309</v>
       </c>
       <c r="B12">
-        <v>0.68347202736617874</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.6834720273661787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>39401</v>
       </c>
       <c r="B13">
-        <v>0.26605183023306722</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.2660518302330672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>39493</v>
       </c>
@@ -522,79 +501,79 @@
         <v>1.528044834838681</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>39583</v>
       </c>
       <c r="B15">
-        <v>-0.42316397223272872</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>-0.4231639722327287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>39675</v>
       </c>
       <c r="B16">
-        <v>-0.52440968467436733</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>-0.5244096846743673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>39767</v>
       </c>
       <c r="B17">
-        <v>-2.2260654449997048</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>-2.226065444999705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>39859</v>
       </c>
       <c r="B18">
-        <v>-3.8007652439096939</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>-3.800765243909694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>39948</v>
       </c>
       <c r="B19">
-        <v>0.44260581376158831</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.4426058137615883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>40040</v>
       </c>
       <c r="B20">
-        <v>0.72803741505522623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.7280374150552262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>40132</v>
       </c>
       <c r="B21">
-        <v>0.18066710241906489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.1806671024190649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>40224</v>
       </c>
       <c r="B22">
-        <v>0.16135155656795061</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.1613515565679506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>40313</v>
       </c>
       <c r="B23">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>40405</v>
       </c>
@@ -602,15 +581,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>40497</v>
       </c>
       <c r="B25">
-        <v>0.36476428150623968</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.3647642815062397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>40589</v>
       </c>
@@ -618,7 +597,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>40678</v>
       </c>
@@ -626,7 +605,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>40770</v>
       </c>
@@ -634,7 +613,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>40862</v>
       </c>
@@ -642,7 +621,7 @@
         <v>-0.1818653957979279</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>40954</v>
       </c>
@@ -650,7 +629,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41044</v>
       </c>
@@ -658,7 +637,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41136</v>
       </c>
@@ -666,7 +645,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41228</v>
       </c>
@@ -674,15 +653,15 @@
         <v>-0.6913189384759022</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41320</v>
       </c>
       <c r="B34">
-        <v>6.3280536907157625E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.06328053690715763</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41409</v>
       </c>
@@ -690,7 +669,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41501</v>
       </c>
@@ -698,63 +677,63 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>41593</v>
       </c>
       <c r="B37">
-        <v>0.38375828272127421</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.3837582827212742</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41685</v>
       </c>
       <c r="B38">
-        <v>0.81792403798914393</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.8179240379891439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>41774</v>
       </c>
       <c r="B39">
-        <v>-8.5094196070571115E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>-0.08509419607057112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>41866</v>
       </c>
       <c r="B40">
-        <v>6.6239272572147456E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.06623927257214746</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41958</v>
       </c>
       <c r="B41">
-        <v>0.69969085346221505</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.699690853462215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42050</v>
       </c>
       <c r="B42">
-        <v>0.27230405586287532</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.2723040558628753</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42139</v>
       </c>
       <c r="B43">
-        <v>0.43864293683924421</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.4386429368392442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42231</v>
       </c>
@@ -762,95 +741,95 @@
         <v>0.3159245680305105</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42323</v>
       </c>
       <c r="B45">
-        <v>0.26869073178647801</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.268690731786478</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42415</v>
       </c>
       <c r="B46">
-        <v>0.66531456679219048</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.6653145667921905</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42505</v>
       </c>
       <c r="B47">
-        <v>0.41125402688273027</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.4112540268827303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42597</v>
       </c>
       <c r="B48">
-        <v>0.19113476347698111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.1911347634769811</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42689</v>
       </c>
       <c r="B49">
-        <v>0.41772870929119682</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.4177287092911968</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42781</v>
       </c>
       <c r="B50">
-        <v>0.60589444190985375</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.6058944419098538</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42870</v>
       </c>
       <c r="B51">
-        <v>0.63320242013024597</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.633202420130246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42962</v>
       </c>
       <c r="B52">
-        <v>0.82417173255868192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.8241717325586819</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43054</v>
       </c>
       <c r="B53">
-        <v>0.60697191245193949</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.6069719124519395</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43146</v>
       </c>
       <c r="B54">
-        <v>0.29727925445619968</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.2972792544561997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43235</v>
       </c>
       <c r="B55">
-        <v>0.45158378937428267</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.4515837893742827</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43327</v>
       </c>
@@ -858,15 +837,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43419</v>
       </c>
       <c r="B57">
-        <v>1.7320802247240859E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.01732080224724086</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43511</v>
       </c>
@@ -874,71 +853,71 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43600</v>
       </c>
       <c r="B59">
-        <v>-7.4682920188934077E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+        <v>-0.07468292018893408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43692</v>
       </c>
       <c r="B60">
-        <v>8.416110121996212E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.08416110121996212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43784</v>
       </c>
       <c r="B61">
-        <v>2.799183183515197E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.02799183183515197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43876</v>
       </c>
       <c r="B62">
-        <v>-2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+        <v>-2.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43966</v>
       </c>
       <c r="B63">
-        <v>-9.6909555116283173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+        <v>-9.690955511628317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>44058</v>
       </c>
       <c r="B64">
-        <v>6.6400000000000006</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6.640000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>44150</v>
       </c>
       <c r="B65">
-        <v>-0.40000000000000568</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+        <v>-0.4000000000000057</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>44242</v>
       </c>
       <c r="B66">
-        <v>-0.70947999999999922</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+        <v>-0.7094799999999992</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>44331</v>
       </c>
@@ -946,7 +925,7 @@
         <v>1.310000000000016</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>44423</v>
       </c>
@@ -954,23 +933,23 @@
         <v>1.52000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>44515</v>
       </c>
       <c r="B69">
-        <v>-0.53999999999999204</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+        <v>-0.539999999999992</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>44607</v>
       </c>
       <c r="B70">
-        <v>0.46528554791034349</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.4652855479103435</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>44696</v>
       </c>
@@ -978,7 +957,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>44788</v>
       </c>
@@ -986,15 +965,15 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>44880</v>
       </c>
       <c r="B73">
-        <v>-0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>44972</v>
       </c>
@@ -1002,7 +981,7 @@
         <v>-0.2078779574152918</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>45061</v>
       </c>
@@ -1010,7 +989,7 @@
         <v>0.1206478331785803</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>45153</v>
       </c>
@@ -1018,39 +997,39 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>45245</v>
       </c>
       <c r="B77">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>45337</v>
       </c>
       <c r="B78">
-        <v>-8.2510040463503742E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+        <v>-0.08251004046350374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>45427</v>
       </c>
       <c r="B79">
-        <v>0.25825252195753018</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.2582525219575302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>45519</v>
       </c>
       <c r="B80">
-        <v>-4.7175525224943733E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+        <v>-0.04717552522494373</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>45611</v>
       </c>
@@ -1058,28 +1037,28 @@
         <v>0.2142297805489477</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>45703</v>
       </c>
       <c r="B82">
-        <v>0.23943715741461349</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.2394371574146135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>45792</v>
       </c>
       <c r="B83">
-        <v>4.717883418304325E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.04717883418304325</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>45884</v>
       </c>
       <c r="B84">
-        <v>9.5949535620576398E-2</v>
+        <v>0.0959495356205764</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_GDP.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_GDP.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +898,7 @@
         <v>44058</v>
       </c>
       <c r="B64">
-        <v>6.640000000000001</v>
+        <v>8.480305474188015</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>44150</v>
       </c>
       <c r="B65">
-        <v>-0.4000000000000057</v>
+        <v>0.34062844669036</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>44242</v>
       </c>
       <c r="B66">
-        <v>-0.7094799999999992</v>
+        <v>-1.80694255667963</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>44331</v>
       </c>
       <c r="B67">
-        <v>1.310000000000016</v>
+        <v>1.633091849519602</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>44423</v>
       </c>
       <c r="B68">
-        <v>1.52000000000001</v>
+        <v>1.694275412034003</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>44515</v>
       </c>
       <c r="B69">
-        <v>-0.539999999999992</v>
+        <v>-0.3471888372093019</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>44607</v>
       </c>
       <c r="B70">
-        <v>0.4652855479103435</v>
+        <v>0.2354020960014367</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>44696</v>
       </c>
       <c r="B71">
-        <v>0.38</v>
+        <v>0.1397248471449046</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>44788</v>
       </c>
       <c r="B72">
-        <v>0.04</v>
+        <v>0.4001468552058896</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,7 +970,7 @@
         <v>44880</v>
       </c>
       <c r="B73">
-        <v>-0.29</v>
+        <v>-0.4353111306276531</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44972</v>
       </c>
       <c r="B74">
-        <v>-0.2078779574152918</v>
+        <v>-0.3352883615304449</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -986,7 +986,7 @@
         <v>45061</v>
       </c>
       <c r="B75">
-        <v>0.1206478331785803</v>
+        <v>0.01856969850348378</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -994,7 +994,7 @@
         <v>45153</v>
       </c>
       <c r="B76">
-        <v>-0.18</v>
+        <v>-0.1296233709318813</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>45245</v>
       </c>
       <c r="B77">
-        <v>0.044</v>
+        <v>-0.2870570324401456</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>45337</v>
       </c>
       <c r="B78">
-        <v>-0.08251004046350374</v>
+        <v>0.2135990538361767</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>45427</v>
       </c>
       <c r="B79">
-        <v>0.2582525219575302</v>
+        <v>-0.06675723343442996</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>45519</v>
       </c>
       <c r="B80">
-        <v>-0.04717552522494373</v>
+        <v>0.1052088781249552</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>45611</v>
       </c>
       <c r="B81">
-        <v>0.2142297805489477</v>
+        <v>-0.2005382402049349</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>45703</v>
       </c>
       <c r="B82">
-        <v>0.2394371574146135</v>
+        <v>0.4116519254275204</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,15 +1050,7 @@
         <v>45792</v>
       </c>
       <c r="B83">
-        <v>0.04717883418304325</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2">
-        <v>45884</v>
-      </c>
-      <c r="B84">
-        <v>0.0959495356205764</v>
+        <v>-0.2766843069119602</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_GDP.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_GDP.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1053,6 +1053,14 @@
         <v>-0.2766843069119602</v>
       </c>
     </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
